--- a/docs/air201/luatos/docs/hardware/design/file/Air201_gpio_config.xlsx
+++ b/docs/air201/luatos/docs/hardware/design/file/Air201_gpio_config.xlsx
@@ -372,13 +372,19 @@
     <t>输入</t>
   </si>
   <si>
-    <t>中断可唤醒</t>
+    <t>中断可唤醒，可对电池进行充电</t>
   </si>
   <si>
     <t>注意事项：</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>休眠情况下，中断可唤醒的</t>
     </r>
     <r>
@@ -421,6 +427,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>休眠情况下，可对外输出的IO口总计</t>
     </r>
     <r>
@@ -445,6 +457,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">USP </t>
     </r>
     <r>
@@ -495,6 +513,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>AONGPIO(5,11,15)</t>
     </r>
     <r>
@@ -509,6 +533,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>输出高电平，只支持</t>
     </r>
     <r>
@@ -551,6 +581,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>WAKEUP(11,15,23)</t>
     </r>
     <r>
@@ -688,6 +724,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>板载的</t>
     </r>
     <r>
@@ -1948,7 +1990,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1964,6 +2006,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2327,7 +2375,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2351,16 +2399,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2369,92 +2417,92 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2489,20 +2537,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2529,20 +2585,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3079,7 +3138,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3130,7 +3189,7 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3141,27 +3200,27 @@
       <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="28"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="12">
@@ -3170,29 +3229,29 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>43</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="28" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3203,29 +3262,29 @@
       <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="28" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3236,29 +3295,29 @@
       <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>41</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="28" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3269,29 +3328,29 @@
       <c r="B6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>40</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="28" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3302,35 +3361,35 @@
       <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="31" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3341,33 +3400,33 @@
       <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="31" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3375,34 +3434,34 @@
       <c r="A9" s="12">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>21</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3413,33 +3472,33 @@
       <c r="B10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="31" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3450,35 +3509,35 @@
       <c r="B11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="31" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3489,33 +3548,33 @@
       <c r="B12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="31" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3526,597 +3585,597 @@
       <c r="B13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>20</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="29"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="15">
+      <c r="A15" s="17">
         <v>3</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="30" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="20">
         <v>53</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="31" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:13">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <v>7</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="18">
         <v>33</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="28" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:13">
-      <c r="A18" s="15">
+      <c r="A18" s="17">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="18">
         <v>34</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="28" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="15">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="21">
         <v>46</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="15">
+      <c r="A20" s="17">
         <v>13</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="28"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="15">
+      <c r="A21" s="17">
         <v>15</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="21">
         <v>47</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="15">
+      <c r="A22" s="17">
         <v>17</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="18">
         <v>14</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="15">
+      <c r="A23" s="17">
         <v>19</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="18">
         <v>13</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="19">
+      <c r="A24" s="22">
         <v>21</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="29" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="15">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="28" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="22">
+      <c r="A28" s="26">
         <v>1</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="22">
+      <c r="A29" s="26">
         <v>2</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="22">
+      <c r="A30" s="26">
         <v>3</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="22">
+      <c r="A31" s="26">
         <v>4</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="22">
+      <c r="A32" s="26">
         <v>5</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="22">
+      <c r="A33" s="26">
         <v>6</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="1:12">
-      <c r="A34" s="22">
+      <c r="A34" s="26">
         <v>7</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" ht="44" customHeight="1" spans="1:12">
-      <c r="A35" s="22">
+      <c r="A35" s="26">
         <v>8</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" ht="32" customHeight="1" spans="1:12">
-      <c r="A36" s="22">
+      <c r="A36" s="26">
         <v>9</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" ht="144" customHeight="1" spans="1:12">
-      <c r="A37" s="22">
+      <c r="A37" s="26">
         <v>10</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="22">
+      <c r="A38" s="26">
         <v>11</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
